--- a/ref/jce_calcs.xlsx
+++ b/ref/jce_calcs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\44563\jce5\ref\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21810" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21810" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="8" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <definedName name="sqft" localSheetId="3">waterproofingEstimate!$F$19</definedName>
     <definedName name="sqft">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -827,21 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -850,6 +840,21 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1164,7 +1169,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1178,19 +1183,19 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="39.125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="45" customWidth="1"/>
     <col min="3" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B2" s="46" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" ht="75" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
         <v>157</v>
       </c>
@@ -1223,32 +1228,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C58" sqref="C58:H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.125" style="49" customWidth="1"/>
-    <col min="19" max="19" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="1"/>
+    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="49" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1344,7 +1349,7 @@
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42670.485702546299</v>
+        <v>42676.565075925922</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1593,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1899,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -1921,34 +1926,34 @@
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="53" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="50" t="s">
+      <c r="H49" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="50" t="s">
+      <c r="J49" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="50" t="s">
+      <c r="K49" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="L49" s="50" t="s">
+      <c r="L49" s="53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1956,18 +1961,18 @@
       <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -2232,15 +2237,15 @@
       <c r="H59" s="8">
         <v>100</v>
       </c>
-      <c r="I59" s="55">
+      <c r="I59" s="50">
         <f>D59*H59</f>
         <v>100</v>
       </c>
-      <c r="J59" s="56">
+      <c r="J59" s="51">
         <f>I59*$M$59</f>
         <v>54</v>
       </c>
-      <c r="K59" s="57">
+      <c r="K59" s="52">
         <f>J59/sqft</f>
         <v>1.35E-2</v>
       </c>
@@ -2278,15 +2283,15 @@
       <c r="H60" s="8">
         <v>100</v>
       </c>
-      <c r="I60" s="55">
+      <c r="I60" s="50">
         <f t="shared" ref="I60:I61" si="1">D60*H60</f>
         <v>200</v>
       </c>
-      <c r="J60" s="56">
+      <c r="J60" s="51">
         <f>I60*$M$59</f>
         <v>108</v>
       </c>
-      <c r="K60" s="57">
+      <c r="K60" s="52">
         <f>J60/sqft</f>
         <v>2.7E-2</v>
       </c>
@@ -2303,7 +2308,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -2325,20 +2330,20 @@
       <c r="H61" s="8">
         <v>100</v>
       </c>
-      <c r="I61" s="55">
+      <c r="I61" s="50">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J61" s="56">
+      <c r="J61" s="51">
         <f>I61*$M$59</f>
         <v>54</v>
       </c>
-      <c r="K61" s="57">
+      <c r="K61" s="52">
         <f>J61/sqft</f>
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -2360,15 +2365,15 @@
       <c r="H62" s="8">
         <v>100</v>
       </c>
-      <c r="I62" s="55">
+      <c r="I62" s="50">
         <f>D62*H62</f>
         <v>200</v>
       </c>
-      <c r="J62" s="56">
+      <c r="J62" s="51">
         <f>I62*$M$59</f>
         <v>108</v>
       </c>
-      <c r="K62" s="57">
+      <c r="K62" s="52">
         <f>J62/sqft</f>
         <v>2.7E-2</v>
       </c>
@@ -2875,32 +2880,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C48" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="1"/>
+    <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2996,7 +3001,7 @@
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42670.485702546299</v>
+        <v>42676.565075925922</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3210,10 +3215,10 @@
       <c r="C22" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="54"/>
+      <c r="F22" s="56"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3228,10 +3233,10 @@
       <c r="D23" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -3240,10 +3245,10 @@
       <c r="C24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -3259,7 +3264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
@@ -3391,7 +3396,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>145</v>
       </c>
@@ -3684,38 +3689,38 @@
       </c>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="53" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="L50" s="50" t="s">
+      <c r="L50" s="53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3723,18 +3728,18 @@
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -4068,7 +4073,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -4102,7 +4107,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -4613,11 +4618,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="L50:L51"/>
@@ -4625,6 +4625,11 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="I50:I51"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
@@ -4645,28 +4650,28 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="26" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="1"/>
+    <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="26" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4762,7 +4767,7 @@
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42670.485702546299</v>
+        <v>42676.565075925922</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5009,7 +5014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -5173,7 +5178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -5504,34 +5509,34 @@
       <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="53" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="L50" s="50" t="s">
+      <c r="L50" s="53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5539,18 +5544,18 @@
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -5884,7 +5889,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -5918,7 +5923,7 @@
         <v>2.0769230769230769E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>

--- a/ref/jce_calcs.xlsx
+++ b/ref/jce_calcs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\44563\jce5\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\44563\jce4\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,15 +16,18 @@
     <sheet name="flooringEstimate" sheetId="7" r:id="rId2"/>
     <sheet name="roofingEstimate" sheetId="6" r:id="rId3"/>
     <sheet name="waterproofingEstimate" sheetId="5" r:id="rId4"/>
+    <sheet name="flooringCoatings" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">flooringEstimate!$A$1:$R$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">flooringEstimate!$A$1:$R$96</definedName>
     <definedName name="sqft" localSheetId="1">flooringEstimate!$F$19</definedName>
     <definedName name="sqft" localSheetId="2">roofingEstimate!$F$19</definedName>
     <definedName name="sqft" localSheetId="3">waterproofingEstimate!$F$19</definedName>
     <definedName name="sqft">#REF!</definedName>
+    <definedName name="Ulist">flooringEstimate!$D$32:$D$34</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="185">
   <si>
     <t>Flooring</t>
   </si>
@@ -162,9 +165,6 @@
     <t>If roof project, select (one) coating product:</t>
   </si>
   <si>
-    <t>If floor project, check all that apply:</t>
-  </si>
-  <si>
     <t>sqft/gal</t>
   </si>
   <si>
@@ -402,9 +402,6 @@
     <t>&lt;&lt;&lt; This will be the quoted price (the main result)</t>
   </si>
   <si>
-    <t>If flooring project, select (one) type of floor system (radio button):</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -520,12 +517,87 @@
   </si>
   <si>
     <t>Comm</t>
+  </si>
+  <si>
+    <t>Select (one) type of floor system (radio button):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70714/70715 - epoxy </t>
+  </si>
+  <si>
+    <t>70714/70715=09 general purpose urethane</t>
+  </si>
+  <si>
+    <t>70734/70735 - floor brite epoxy</t>
+  </si>
+  <si>
+    <t>70805/7952 - chem resistant urethane</t>
+  </si>
+  <si>
+    <t>70815/70816 - urethane Hi-solids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70714/70715-01 fast cure epoxy  </t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>coatingType</t>
+  </si>
+  <si>
+    <t>defaultCoverageSqFt</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>displayOrder</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Epoxy</t>
+  </si>
+  <si>
+    <t>Urethane</t>
+  </si>
+  <si>
+    <t>Product type: (check all that apply):</t>
+  </si>
+  <si>
+    <t>If checked, select product (from combobox):</t>
+  </si>
+  <si>
+    <t>Enter coverage in (sqft/gal)</t>
+  </si>
+  <si>
+    <t>Once selected, we know the unit price:</t>
+  </si>
+  <si>
+    <t>Once selected, we know the units.</t>
+  </si>
+  <si>
+    <t>Calculate cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a RESTful GET call to </t>
+  </si>
+  <si>
+    <t>get total squarefootage:</t>
+  </si>
+  <si>
+    <t>See flooringCoatings tab for the list.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -586,7 +658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +683,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +789,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -855,6 +933,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1177,6 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -1192,27 +1281,27 @@
   <sheetData>
     <row r="2" spans="2:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B2" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="75" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1226,10 +1315,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58:H58"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1327,7 @@
     <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="26" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
@@ -1258,80 +1348,80 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="24">
         <v>64468</v>
@@ -1339,53 +1429,53 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42676.565075925922</v>
+        <v>42683.470973379626</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
@@ -1393,38 +1483,38 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="F14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>66</v>
-      </c>
       <c r="H14" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="24">
         <v>100</v>
@@ -1437,27 +1527,27 @@
         <v>1000</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="27">
         <v>1000</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K15" s="27">
         <v>500000</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="24">
         <v>150</v>
@@ -1470,27 +1560,27 @@
         <v>3000</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="27">
         <v>400</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" s="27">
         <v>20000</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="24">
         <v>100</v>
@@ -1503,24 +1593,24 @@
         <v>1000</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="27">
         <v>1000</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17" s="27">
         <v>200000</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -1534,10 +1624,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -1548,12 +1638,12 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1561,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1570,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -1583,6 +1673,12 @@
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1591,7 +1687,13 @@
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="25">
+        <f>+sqft</f>
+        <v>4000</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1603,35 +1705,35 @@
         <v>0</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="H27" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="25" t="s">
-        <v>81</v>
-      </c>
       <c r="K27" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1639,37 +1741,39 @@
         <v>0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="25">
-        <v>55</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="24">
+        <v>164</v>
+      </c>
+      <c r="E28" s="24">
         <v>100</v>
       </c>
+      <c r="F28" s="25">
+        <f>VLOOKUP(D28,flooringCoatings!$B:$G,6, FALSE)</f>
+        <v>72.67</v>
+      </c>
+      <c r="G28" s="61" t="str">
+        <f>VLOOKUP(D28,flooringCoatings!$B:$G,4, FALSE)</f>
+        <v>gal</v>
+      </c>
       <c r="H28" s="34">
-        <f>sqft/G28*E28</f>
-        <v>2200</v>
+        <f>sqft/E28*F28</f>
+        <v>2906.8</v>
       </c>
       <c r="I28" s="34">
         <f>H28/sqft</f>
-        <v>0.55000000000000004</v>
+        <v>0.72670000000000001</v>
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="27">
         <v>80</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N28" s="27">
         <v>200</v>
@@ -1680,30 +1784,32 @@
         <v>0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="25">
-        <v>70</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="24">
+        <v>163</v>
+      </c>
+      <c r="E29" s="24">
         <v>150</v>
       </c>
+      <c r="F29" s="25">
+        <f>VLOOKUP(D29,flooringCoatings!$B:$G,6, FALSE)</f>
+        <v>77.45</v>
+      </c>
+      <c r="G29" s="61" t="str">
+        <f>VLOOKUP(D29,flooringCoatings!$B:$G,4, FALSE)</f>
+        <v>gal</v>
+      </c>
       <c r="H29" s="34">
-        <f>sqft/G29*E29</f>
-        <v>1866.6666666666667</v>
+        <f>sqft/E29*F29</f>
+        <v>2065.3333333333335</v>
       </c>
       <c r="I29" s="34">
         <f>H29/sqft</f>
-        <v>0.46666666666666667</v>
+        <v>0.51633333333333342</v>
       </c>
       <c r="K29" s="27"/>
       <c r="L29" s="27">
@@ -1719,15 +1825,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H28:H29)+SUM(H32:H34)</f>
-        <v>4066.666666666667</v>
+        <v>4972.1333333333332</v>
       </c>
       <c r="I30" s="39">
         <f>SUM(I28:I29)+SUM(I32:I34)</f>
-        <v>1.0166666666666666</v>
+        <v>1.2430333333333334</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1741,18 +1847,21 @@
         <v>0</v>
       </c>
       <c r="B32" s="1"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="1"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1762,92 +1871,92 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H43" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="25">
         <v>20</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G44" s="24">
         <v>200</v>
@@ -1863,7 +1972,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
@@ -1872,7 +1981,7 @@
         <v>36</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G45" s="24">
         <v>100</v>
@@ -1882,7 +1991,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
@@ -1891,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G46" s="24">
         <v>500</v>
@@ -1901,11 +2010,11 @@
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="5"/>
       <c r="G47" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H47" s="39">
         <f>SUM(H44:H46)</f>
@@ -1918,13 +2027,13 @@
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="53" t="s">
         <v>16</v>
@@ -1939,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H49" s="53" t="s">
         <v>21</v>
@@ -1951,15 +2060,15 @@
         <v>23</v>
       </c>
       <c r="K49" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="L49" s="53" t="s">
         <v>86</v>
-      </c>
-      <c r="L49" s="53" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
@@ -1976,7 +2085,7 @@
     </row>
     <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>24</v>
@@ -2012,7 +2121,7 @@
         <v>0.31</v>
       </c>
       <c r="O51" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P51" s="28"/>
       <c r="Q51" s="27"/>
@@ -2020,7 +2129,7 @@
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>25</v>
@@ -2056,17 +2165,17 @@
         <v>0.16</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P52" s="28"/>
       <c r="Q52" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R52" s="35"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2082,18 +2191,18 @@
         <v>15</v>
       </c>
       <c r="P53" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q53" s="29">
         <v>100</v>
       </c>
       <c r="R53" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2109,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="P54" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q54" s="27">
         <v>14</v>
       </c>
       <c r="R54" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>26</v>
@@ -2153,30 +2262,30 @@
         <v>0</v>
       </c>
       <c r="P55" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q55" s="27">
         <v>200</v>
       </c>
       <c r="R55" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>27</v>
@@ -2200,16 +2309,16 @@
         <v>33</v>
       </c>
       <c r="J58" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="M58" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O58" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P58" s="28"/>
       <c r="Q58" s="27"/>
@@ -2217,7 +2326,7 @@
     </row>
     <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>34</v>
@@ -2253,17 +2362,17 @@
         <v>0.54</v>
       </c>
       <c r="O59" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P59" s="28"/>
       <c r="Q59" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R59" s="35"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>37</v>
@@ -2299,18 +2408,18 @@
         <v>0.4</v>
       </c>
       <c r="P60" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q60" s="30">
         <v>2</v>
       </c>
       <c r="R60" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>34</v>
@@ -2345,7 +2454,7 @@
     </row>
     <row r="62" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>37</v>
@@ -2380,10 +2489,10 @@
     </row>
     <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -2408,24 +2517,24 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D65" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D66" s="8">
         <v>200</v>
@@ -2437,10 +2546,10 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D67" s="8">
         <v>200</v>
@@ -2452,10 +2561,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" s="8">
         <v>300</v>
@@ -2467,10 +2576,10 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" s="8">
         <v>250</v>
@@ -2482,10 +2591,10 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D70" s="42">
         <f>SUM(D66:D69)</f>
@@ -2498,42 +2607,42 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E74" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" s="11">
         <f>+sqft</f>
@@ -2545,27 +2654,27 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="21">
         <f>+H30</f>
-        <v>4066.666666666667</v>
+        <v>4972.1333333333332</v>
       </c>
       <c r="F76" s="21">
         <f>E76/sqft</f>
-        <v>1.0166666666666668</v>
+        <v>1.2430333333333332</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="21">
@@ -2579,10 +2688,10 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="21">
@@ -2596,10 +2705,10 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="21">
@@ -2613,10 +2722,10 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="21">
@@ -2630,7 +2739,7 @@
     </row>
     <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -2639,64 +2748,64 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="21">
         <f>SUM(E75:E81)</f>
-        <v>7620.666666666667</v>
+        <v>8526.1333333333332</v>
       </c>
       <c r="F82" s="21">
         <f>SUM(F75:F81)</f>
-        <v>1.9051666666666669</v>
+        <v>2.1315333333333331</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" s="20">
         <v>0.4</v>
       </c>
       <c r="E86" s="21">
         <f>+$E$82*(1+D86)</f>
-        <v>10668.933333333332</v>
+        <v>11936.586666666666</v>
       </c>
       <c r="F86" s="21">
         <f t="shared" ref="F86:F92" si="2">+E86/sqft</f>
-        <v>2.6672333333333329</v>
+        <v>2.9841466666666667</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87" s="20">
         <f>+D86+0.1</f>
@@ -2704,19 +2813,19 @@
       </c>
       <c r="E87" s="21">
         <f t="shared" ref="E87:E92" si="3">+$E$82*(1+D87)</f>
-        <v>11431</v>
+        <v>12789.2</v>
       </c>
       <c r="F87" s="21">
         <f t="shared" si="2"/>
-        <v>2.8577499999999998</v>
+        <v>3.1973000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88" s="20">
         <f t="shared" ref="D88:D92" si="4">+D87+0.1</f>
@@ -2724,19 +2833,19 @@
       </c>
       <c r="E88" s="21">
         <f t="shared" si="3"/>
-        <v>12193.066666666668</v>
+        <v>13641.813333333334</v>
       </c>
       <c r="F88" s="21">
         <f t="shared" si="2"/>
-        <v>3.0482666666666667</v>
+        <v>3.4104533333333333</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" s="20">
         <f t="shared" si="4"/>
@@ -2744,19 +2853,19 @@
       </c>
       <c r="E89" s="21">
         <f t="shared" si="3"/>
-        <v>12955.133333333333</v>
+        <v>14494.426666666666</v>
       </c>
       <c r="F89" s="21">
         <f t="shared" si="2"/>
-        <v>3.2387833333333331</v>
+        <v>3.6236066666666664</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" s="20">
         <f t="shared" si="4"/>
@@ -2764,19 +2873,19 @@
       </c>
       <c r="E90" s="21">
         <f t="shared" si="3"/>
-        <v>13717.199999999999</v>
+        <v>15347.039999999999</v>
       </c>
       <c r="F90" s="21">
         <f t="shared" si="2"/>
-        <v>3.4292999999999996</v>
+        <v>3.8367599999999999</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D91" s="20">
         <f t="shared" si="4"/>
@@ -2784,19 +2893,19 @@
       </c>
       <c r="E91" s="21">
         <f t="shared" si="3"/>
-        <v>14479.266666666666</v>
+        <v>16199.653333333332</v>
       </c>
       <c r="F91" s="21">
         <f t="shared" si="2"/>
-        <v>3.6198166666666665</v>
+        <v>4.0499133333333326</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D92" s="20">
         <f t="shared" si="4"/>
@@ -2804,51 +2913,51 @@
       </c>
       <c r="E92" s="21">
         <f t="shared" si="3"/>
-        <v>15241.333333333334</v>
+        <v>17052.266666666666</v>
       </c>
       <c r="F92" s="21">
         <f t="shared" si="2"/>
-        <v>3.8103333333333333</v>
+        <v>4.263066666666667</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D96" s="20">
         <v>0.5</v>
       </c>
       <c r="E96" s="21">
         <f t="shared" ref="E96" si="5">+$E$82*(1+D96)</f>
-        <v>11431</v>
+        <v>12789.2</v>
       </c>
       <c r="F96" s="21">
         <f>+E96/sqft</f>
-        <v>2.8577499999999998</v>
+        <v>3.1973000000000003</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I96" s="27"/>
       <c r="J96" s="27"/>
@@ -2873,14 +2982,27 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="18" max="95" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>flooringCoatings!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D28:D29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
@@ -2910,80 +3032,80 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="24">
         <v>64468</v>
@@ -2991,53 +3113,53 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42676.565075925922</v>
+        <v>42683.470973379626</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
@@ -3045,38 +3167,38 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="F14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>66</v>
-      </c>
       <c r="H14" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="24">
         <v>100</v>
@@ -3089,27 +3211,27 @@
         <v>1000</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="27">
         <v>1000</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K15" s="27">
         <v>500000</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="24">
         <v>80</v>
@@ -3122,27 +3244,27 @@
         <v>1600</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="27">
         <v>400</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" s="27">
         <v>20000</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="24">
         <v>100</v>
@@ -3155,24 +3277,24 @@
         <v>1000</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="27">
         <v>1000</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17" s="27">
         <v>200000</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -3186,10 +3308,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -3200,38 +3322,38 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>145</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>147</v>
       </c>
       <c r="F22" s="56"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="57" t="s">
         <v>39</v>
@@ -3240,7 +3362,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>3</v>
@@ -3252,7 +3374,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>4</v>
@@ -3261,63 +3383,63 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>114</v>
-      </c>
       <c r="H27" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="25" t="s">
-        <v>81</v>
-      </c>
       <c r="K27" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="25">
         <v>55</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G28" s="24">
         <v>80</v>
@@ -3331,13 +3453,13 @@
         <v>0.6875</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L28" s="27">
         <v>80</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N28" s="27">
         <v>125</v>
@@ -3345,7 +3467,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>8</v>
@@ -3357,13 +3479,13 @@
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="K29" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L29" s="27">
         <v>80</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N29" s="27">
         <v>125</v>
@@ -3371,10 +3493,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
@@ -3383,13 +3505,13 @@
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
       <c r="K30" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L30" s="27">
         <v>80</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N30" s="27">
         <v>125</v>
@@ -3398,58 +3520,58 @@
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>114</v>
-      </c>
       <c r="H32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="K32" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="25">
         <v>30</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G33" s="24">
         <v>250</v>
@@ -3467,7 +3589,7 @@
         <v>250</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N33" s="27">
         <v>350</v>
@@ -3475,22 +3597,22 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E34" s="25">
         <v>35</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" s="24">
         <v>80</v>
@@ -3508,7 +3630,7 @@
         <v>80</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N34" s="27">
         <v>150</v>
@@ -3516,22 +3638,22 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E35" s="25">
         <v>35</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G35" s="24">
         <v>100</v>
@@ -3555,11 +3677,11 @@
     </row>
     <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4"/>
       <c r="G36" s="38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H36" s="39">
         <f>SUM(H28:H30)+SUM(H33:H35)</f>
@@ -3572,86 +3694,86 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H44" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="25">
         <v>20</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G45" s="24">
         <v>200</v>
@@ -3667,31 +3789,31 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="53" t="s">
         <v>16</v>
@@ -3706,7 +3828,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H50" s="53" t="s">
         <v>21</v>
@@ -3718,15 +3840,15 @@
         <v>23</v>
       </c>
       <c r="K50" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="L50" s="53" t="s">
         <v>86</v>
-      </c>
-      <c r="L50" s="53" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
@@ -3743,7 +3865,7 @@
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>24</v>
@@ -3779,7 +3901,7 @@
         <v>0.47692307692307695</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P52" s="28"/>
       <c r="Q52" s="27"/>
@@ -3787,7 +3909,7 @@
     </row>
     <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>25</v>
@@ -3823,17 +3945,17 @@
         <v>0.24615384615384617</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P53" s="28"/>
       <c r="Q53" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R53" s="27"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3849,18 +3971,18 @@
         <v>15</v>
       </c>
       <c r="P54" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q54" s="29">
         <v>100</v>
       </c>
       <c r="R54" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3876,18 +3998,18 @@
         <v>0</v>
       </c>
       <c r="P55" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q55" s="27">
         <v>14</v>
       </c>
       <c r="R55" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>26</v>
@@ -3920,30 +4042,30 @@
         <v>0</v>
       </c>
       <c r="P56" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q56" s="27">
         <v>200</v>
       </c>
       <c r="R56" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>27</v>
@@ -3967,16 +4089,16 @@
         <v>33</v>
       </c>
       <c r="J59" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="M59" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O59" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P59" s="28"/>
       <c r="Q59" s="27"/>
@@ -3984,7 +4106,7 @@
     </row>
     <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>34</v>
@@ -4019,17 +4141,17 @@
         <v>0.5</v>
       </c>
       <c r="O60" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P60" s="28"/>
       <c r="Q60" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R60" s="27"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>37</v>
@@ -4064,18 +4186,18 @@
         <v>0.4</v>
       </c>
       <c r="P61" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q61" s="30">
         <v>2</v>
       </c>
       <c r="R61" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>34</v>
@@ -4109,7 +4231,7 @@
     </row>
     <row r="63" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>37</v>
@@ -4143,10 +4265,10 @@
     </row>
     <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -4171,24 +4293,24 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D67" s="8">
         <v>200</v>
@@ -4200,10 +4322,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="8">
         <v>200</v>
@@ -4215,10 +4337,10 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="8">
         <v>300</v>
@@ -4230,10 +4352,10 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="8">
         <v>250</v>
@@ -4245,10 +4367,10 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" s="42">
         <f>SUM(D67:D70)</f>
@@ -4261,42 +4383,42 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E75" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76" s="11">
         <f>+sqft</f>
@@ -4308,10 +4430,10 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="21">
@@ -4325,10 +4447,10 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="21">
@@ -4342,10 +4464,10 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="21">
@@ -4359,10 +4481,10 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="21">
@@ -4376,10 +4498,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="21">
@@ -4393,7 +4515,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -4402,10 +4524,10 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="21">
@@ -4419,28 +4541,28 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="20">
         <v>0.4</v>
@@ -4456,10 +4578,10 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D88" s="20">
         <f>+D87+0.1</f>
@@ -4476,10 +4598,10 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="20">
         <f t="shared" ref="D89:D93" si="3">+D88+0.1</f>
@@ -4496,10 +4618,10 @@
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" s="20">
         <f t="shared" si="3"/>
@@ -4516,10 +4638,10 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D91" s="20">
         <f t="shared" si="3"/>
@@ -4536,10 +4658,10 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D92" s="20">
         <f t="shared" si="3"/>
@@ -4556,10 +4678,10 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D93" s="20">
         <f t="shared" si="3"/>
@@ -4576,28 +4698,28 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D97" s="20">
         <v>0.6</v>
@@ -4611,7 +4733,7 @@
         <v>4.6381538461538465</v>
       </c>
       <c r="H97" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I97" s="27"/>
       <c r="J97" s="27"/>
@@ -4644,6 +4766,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
@@ -4676,80 +4799,80 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="24">
         <v>64468</v>
@@ -4757,53 +4880,53 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42676.565075925922</v>
+        <v>42683.470973379626</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
@@ -4811,38 +4934,38 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="F14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>66</v>
-      </c>
       <c r="H14" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="24">
         <v>100</v>
@@ -4855,27 +4978,27 @@
         <v>1000</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="27">
         <v>1000</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K15" s="27">
         <v>500000</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="24">
         <v>80</v>
@@ -4888,27 +5011,27 @@
         <v>1600</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="27">
         <v>400</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" s="27">
         <v>20000</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="24">
         <v>100</v>
@@ -4921,24 +5044,24 @@
         <v>1000</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="27">
         <v>1000</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17" s="27">
         <v>200000</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -4952,10 +5075,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -4966,29 +5089,29 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>7</v>
@@ -4996,78 +5119,78 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>114</v>
-      </c>
       <c r="H27" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="25" t="s">
-        <v>81</v>
-      </c>
       <c r="K27" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="25">
         <v>55</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G28" s="24">
         <v>100</v>
@@ -5085,7 +5208,7 @@
         <v>80</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N28" s="27">
         <v>200</v>
@@ -5093,22 +5216,22 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="25">
         <v>70</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G29" s="24">
         <v>200</v>
@@ -5126,7 +5249,7 @@
         <v>200</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N29" s="27">
         <v>400</v>
@@ -5134,22 +5257,22 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E30" s="25">
         <v>30</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G30" s="24">
         <v>300</v>
@@ -5167,7 +5290,7 @@
         <v>300</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N30" s="27">
         <v>400</v>
@@ -5175,63 +5298,63 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>114</v>
-      </c>
       <c r="H32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="K32" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="25">
         <v>30</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G33" s="24">
         <v>250</v>
@@ -5249,7 +5372,7 @@
         <v>250</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N33" s="27">
         <v>350</v>
@@ -5257,22 +5380,22 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E34" s="25">
         <v>35</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" s="24">
         <v>80</v>
@@ -5290,7 +5413,7 @@
         <v>80</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N34" s="27">
         <v>150</v>
@@ -5298,22 +5421,22 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E35" s="25">
         <v>35</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G35" s="24">
         <v>100</v>
@@ -5341,7 +5464,7 @@
       </c>
       <c r="C36" s="4"/>
       <c r="G36" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H36" s="39">
         <f>SUM(H28:H30)+SUM(H33:H35)</f>
@@ -5354,86 +5477,86 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H44" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="25">
         <v>20</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G45" s="24">
         <v>200</v>
@@ -5449,7 +5572,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
@@ -5458,7 +5581,7 @@
         <v>36</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G46" s="24">
         <v>100</v>
@@ -5468,7 +5591,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
@@ -5477,7 +5600,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G47" s="24">
         <v>500</v>
@@ -5487,7 +5610,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="5"/>
       <c r="H48" s="39">
@@ -5501,13 +5624,13 @@
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="53" t="s">
         <v>16</v>
@@ -5522,7 +5645,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H50" s="53" t="s">
         <v>21</v>
@@ -5534,15 +5657,15 @@
         <v>23</v>
       </c>
       <c r="K50" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="L50" s="53" t="s">
         <v>86</v>
-      </c>
-      <c r="L50" s="53" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
@@ -5559,7 +5682,7 @@
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>24</v>
@@ -5595,7 +5718,7 @@
         <v>0.47692307692307695</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P52" s="28"/>
       <c r="Q52" s="27"/>
@@ -5603,7 +5726,7 @@
     </row>
     <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>25</v>
@@ -5639,17 +5762,17 @@
         <v>0.24615384615384617</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P53" s="28"/>
       <c r="Q53" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R53" s="27"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -5665,18 +5788,18 @@
         <v>15</v>
       </c>
       <c r="P54" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q54" s="29">
         <v>100</v>
       </c>
       <c r="R54" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -5692,18 +5815,18 @@
         <v>0</v>
       </c>
       <c r="P55" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q55" s="27">
         <v>14</v>
       </c>
       <c r="R55" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>26</v>
@@ -5736,30 +5859,30 @@
         <v>0</v>
       </c>
       <c r="P56" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q56" s="27">
         <v>200</v>
       </c>
       <c r="R56" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>27</v>
@@ -5783,16 +5906,16 @@
         <v>33</v>
       </c>
       <c r="J59" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="M59" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O59" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P59" s="28"/>
       <c r="Q59" s="27"/>
@@ -5800,7 +5923,7 @@
     </row>
     <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>34</v>
@@ -5835,17 +5958,17 @@
         <v>0.54</v>
       </c>
       <c r="O60" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P60" s="28"/>
       <c r="Q60" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R60" s="27"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>37</v>
@@ -5880,18 +6003,18 @@
         <v>0.4</v>
       </c>
       <c r="P61" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q61" s="30">
         <v>2</v>
       </c>
       <c r="R61" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>34</v>
@@ -5925,7 +6048,7 @@
     </row>
     <row r="63" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>37</v>
@@ -5959,10 +6082,10 @@
     </row>
     <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5987,24 +6110,24 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D67" s="8">
         <v>200</v>
@@ -6016,10 +6139,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="8">
         <v>200</v>
@@ -6031,10 +6154,10 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="8">
         <v>300</v>
@@ -6046,10 +6169,10 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="8">
         <v>250</v>
@@ -6061,10 +6184,10 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" s="11">
         <f>SUM(D67:D70)</f>
@@ -6077,42 +6200,42 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E75" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76" s="11">
         <f>+sqft</f>
@@ -6124,10 +6247,10 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="21">
@@ -6140,10 +6263,10 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="21"/>
@@ -6151,10 +6274,10 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="21">
@@ -6168,10 +6291,10 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="21">
@@ -6185,10 +6308,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="21">
@@ -6202,7 +6325,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -6211,10 +6334,10 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="21">
@@ -6228,28 +6351,28 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="20">
         <v>0.4</v>
@@ -6265,10 +6388,10 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D88" s="20">
         <f>+D87+0.1</f>
@@ -6285,10 +6408,10 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="20">
         <f t="shared" ref="D89:D93" si="3">+D88+0.1</f>
@@ -6305,10 +6428,10 @@
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" s="20">
         <f t="shared" si="3"/>
@@ -6325,10 +6448,10 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D91" s="20">
         <f t="shared" si="3"/>
@@ -6345,10 +6468,10 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D92" s="20">
         <f t="shared" si="3"/>
@@ -6365,10 +6488,10 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D93" s="20">
         <f t="shared" si="3"/>
@@ -6385,28 +6508,28 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D97" s="20">
         <v>0.5</v>
@@ -6420,7 +6543,7 @@
         <v>1.9350000000000001</v>
       </c>
       <c r="H97" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I97" s="27"/>
       <c r="J97" s="27"/>
@@ -6443,4 +6566,189 @@
     <brk id="57" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="58"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="20" style="58" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="58">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="58">
+        <v>10</v>
+      </c>
+      <c r="G2" s="59">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="58">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="58">
+        <v>20</v>
+      </c>
+      <c r="G3" s="59">
+        <v>50.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="58">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="58">
+        <v>30</v>
+      </c>
+      <c r="G4" s="59">
+        <v>77.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="58">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="58">
+        <v>40</v>
+      </c>
+      <c r="G5" s="59">
+        <v>72.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="58">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="58">
+        <v>50</v>
+      </c>
+      <c r="G6" s="59">
+        <v>113.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="58">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="58">
+        <v>60</v>
+      </c>
+      <c r="G7" s="59">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>